--- a/reference set & search string.xlsx
+++ b/reference set & search string.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\495235\Desktop\TMSR\RadTMSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC5CE8A-FB6C-49C4-A7F1-43DCB4F0FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148AD120-B8CE-4B3A-8A7E-40C19CEC04BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reference set" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>found using all2</t>
-  </si>
-  <si>
     <t>Bélanger, J. J., Adam‐Troian, J., Nisa, C. F., &amp; Schumpe, B. M. (2022). Ideological passion and violent activism: The moderating role of the significance quest. British Journal of Psychology, 113(4), 917-937.</t>
   </si>
   <si>
@@ -349,11 +346,14 @@
     <t>Radicalization in Adolescence: the Identification of Vulnerable Groups</t>
   </si>
   <si>
-    <t>all1</t>
-  </si>
-  <si>
     <t>TS = (("radicalisation" OR "radicalization" OR "radicalism" OR "radical activis*" OR "radical attitud*" OR "radical behav*" OR "radical belie*" OR "radical ideolog*" OR "extremis*" OR "radical left*" OR "radical right*" OR "Islamis*" OR "extreme ideolog*" OR "terroris*" OR "violent activis*" OR "political* violen*" OR "jihad*") 
 NOT ("radical behavioris*" OR "radical behaviouris*"))</t>
+  </si>
+  <si>
+    <t>found using search strnig "all"</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -709,467 +709,467 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1218,9 +1218,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1229,10 +1227,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
